--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H2">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>3284.063860130966</v>
+        <v>3832.949945103477</v>
       </c>
       <c r="R2">
-        <v>29556.57474117869</v>
+        <v>34496.54950593129</v>
       </c>
       <c r="S2">
-        <v>0.004370953144775923</v>
+        <v>0.00445964263145857</v>
       </c>
       <c r="T2">
-        <v>0.004370953144775923</v>
+        <v>0.004459642631458569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H3">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>19.06741319052411</v>
+        <v>18.03945512269478</v>
       </c>
       <c r="R3">
-        <v>171.6067187147169</v>
+        <v>162.355096104253</v>
       </c>
       <c r="S3">
-        <v>2.537793818800455E-05</v>
+        <v>2.098893131026303E-05</v>
       </c>
       <c r="T3">
-        <v>2.537793818800455E-05</v>
+        <v>2.098893131026303E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H4">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>60.36946890891278</v>
+        <v>32.30746160511777</v>
       </c>
       <c r="R4">
-        <v>543.325220180215</v>
+        <v>290.76715444606</v>
       </c>
       <c r="S4">
-        <v>8.034926579209139E-05</v>
+        <v>3.75897768434084E-05</v>
       </c>
       <c r="T4">
-        <v>8.034926579209139E-05</v>
+        <v>3.758977684340839E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H5">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>1057.469975561531</v>
+        <v>832.9278274688029</v>
       </c>
       <c r="R5">
-        <v>9517.229780053774</v>
+        <v>7496.350447219225</v>
       </c>
       <c r="S5">
-        <v>0.00140744879272916</v>
+        <v>0.0009691126942717645</v>
       </c>
       <c r="T5">
-        <v>0.00140744879272916</v>
+        <v>0.0009691126942717644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J6">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>536342.068253022</v>
+        <v>661655.2743240779</v>
       </c>
       <c r="R6">
-        <v>4827078.614277198</v>
+        <v>5954897.4689167</v>
       </c>
       <c r="S6">
-        <v>0.7138491057883021</v>
+        <v>0.769836838718595</v>
       </c>
       <c r="T6">
-        <v>0.7138491057883022</v>
+        <v>0.7698368387185949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J7">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
-        <v>3114.024654329597</v>
+        <v>3114.024654329598</v>
       </c>
       <c r="R7">
-        <v>28026.22188896637</v>
+        <v>28026.22188896638</v>
       </c>
       <c r="S7">
-        <v>0.004144637995927675</v>
+        <v>0.003623172048359844</v>
       </c>
       <c r="T7">
-        <v>0.004144637995927675</v>
+        <v>0.003623172048359843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J8">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>9859.335016905412</v>
+        <v>5577.010573372287</v>
       </c>
       <c r="R8">
-        <v>88734.01515214871</v>
+        <v>50193.09516035057</v>
       </c>
       <c r="S8">
-        <v>0.0131223670528208</v>
+        <v>0.006488859616045627</v>
       </c>
       <c r="T8">
-        <v>0.0131223670528208</v>
+        <v>0.006488859616045626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J9">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>172702.3766783652</v>
+        <v>143782.490788867</v>
       </c>
       <c r="R9">
-        <v>1554321.390105287</v>
+        <v>1294042.417099803</v>
       </c>
       <c r="S9">
-        <v>0.2298597191171771</v>
+        <v>0.1672911294859135</v>
       </c>
       <c r="T9">
-        <v>0.2298597191171772</v>
+        <v>0.1672911294859134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H10">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I10">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J10">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>18147.47509937107</v>
+        <v>32571.98887954219</v>
       </c>
       <c r="R10">
-        <v>163327.2758943396</v>
+        <v>293147.8999158797</v>
       </c>
       <c r="S10">
-        <v>0.02415353864409184</v>
+        <v>0.03789755469782929</v>
       </c>
       <c r="T10">
-        <v>0.02415353864409185</v>
+        <v>0.03789755469782929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H11">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I11">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J11">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>105.3650053171184</v>
+        <v>153.2973140961673</v>
       </c>
       <c r="R11">
-        <v>948.2850478540659</v>
+        <v>1379.675826865505</v>
       </c>
       <c r="S11">
-        <v>0.0001402364634047721</v>
+        <v>0.0001783616397351378</v>
       </c>
       <c r="T11">
-        <v>0.0001402364634047721</v>
+        <v>0.0001783616397351377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H12">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I12">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J12">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>333.5968727913411</v>
+        <v>274.5452706661222</v>
       </c>
       <c r="R12">
-        <v>3002.37185512207</v>
+        <v>2470.9074359951</v>
       </c>
       <c r="S12">
-        <v>0.0004440036376626906</v>
+        <v>0.0003194338070843022</v>
       </c>
       <c r="T12">
-        <v>0.0004440036376626906</v>
+        <v>0.0003194338070843022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H13">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I13">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J13">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N13">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q13">
-        <v>5843.494787908939</v>
+        <v>7078.129462252255</v>
       </c>
       <c r="R13">
-        <v>52591.45309118045</v>
+        <v>63703.16516027028</v>
       </c>
       <c r="S13">
-        <v>0.007777449832742812</v>
+        <v>0.008235413546469079</v>
       </c>
       <c r="T13">
-        <v>0.007777449832742812</v>
+        <v>0.008235413546469075</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H14">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N14">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O14">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P14">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q14">
-        <v>348.7217107419759</v>
+        <v>448.37434298154</v>
       </c>
       <c r="R14">
-        <v>3138.495396677784</v>
+        <v>4035.36908683386</v>
       </c>
       <c r="S14">
-        <v>0.0004641341713003394</v>
+        <v>0.0005216841762745014</v>
       </c>
       <c r="T14">
-        <v>0.0004641341713003395</v>
+        <v>0.0005216841762745013</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H15">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q15">
-        <v>2.024692950690222</v>
+        <v>2.110235968178</v>
       </c>
       <c r="R15">
-        <v>18.222236556212</v>
+        <v>18.992123713602</v>
       </c>
       <c r="S15">
-        <v>2.694782561162542E-06</v>
+        <v>2.455262505618189E-06</v>
       </c>
       <c r="T15">
-        <v>2.694782561162542E-06</v>
+        <v>2.455262505618188E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H16">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N16">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q16">
-        <v>6.410394368415555</v>
+        <v>3.77929194956</v>
       </c>
       <c r="R16">
-        <v>57.69354931574</v>
+        <v>34.01362754604</v>
       </c>
       <c r="S16">
-        <v>8.531969723256979E-06</v>
+        <v>4.397211478463734E-06</v>
       </c>
       <c r="T16">
-        <v>8.531969723256979E-06</v>
+        <v>4.397211478463734E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H17">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N17">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q17">
-        <v>112.2885408572373</v>
+        <v>97.43499725830199</v>
       </c>
       <c r="R17">
-        <v>1010.596867715136</v>
+        <v>876.9149753247179</v>
       </c>
       <c r="S17">
-        <v>0.0001494514028002696</v>
+        <v>0.0001133657558258152</v>
       </c>
       <c r="T17">
-        <v>0.0001494514028002696</v>
+        <v>0.0001133657558258152</v>
       </c>
     </row>
   </sheetData>
